--- a/ExcelConfig/钻石商城.xlsx
+++ b/ExcelConfig/钻石商城.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1440" windowWidth="22540" windowHeight="11900" activeTab="1"/>
+    <workbookView xWindow="2280" yWindow="1440" windowWidth="22536" windowHeight="11904" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
-    <sheet name="DimondStore" sheetId="1" r:id="rId2"/>
+    <sheet name="DimondStoreConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,18 +56,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>DimondStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DimondStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DimondStore.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钻石商城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +97,21 @@
   </si>
   <si>
     <t>Last_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DimondStoreConfig</t>
+  </si>
+  <si>
+    <t>DimondStoreConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品识别码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +188,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -243,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,30 +493,30 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -529,25 +532,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -558,19 +563,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="16">
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -581,42 +589,48 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
+    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -624,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -632,18 +646,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16">
-      <c r="D12" s="3"/>
+    <row r="12" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/钻石商城.xlsx
+++ b/ExcelConfig/钻石商城.xlsx
@@ -538,16 +538,17 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>

--- a/ExcelConfig/钻石商城.xlsx
+++ b/ExcelConfig/钻石商城.xlsx
@@ -538,17 +538,16 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>

--- a/ExcelConfig/钻石商城.xlsx
+++ b/ExcelConfig/钻石商城.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1440" windowWidth="22536" windowHeight="11904" activeTab="1"/>
+    <workbookView xWindow="7710" yWindow="-285" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -112,6 +104,64 @@
   </si>
   <si>
     <t>ItemKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5W</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【妖】:九尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富徭令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：先发制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰徭鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丰令Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良耕券Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城卷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +209,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,12 +237,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -204,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,7 +339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,27 +554,27 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -532,27 +590,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="2" customWidth="1"/>
-    <col min="5" max="7" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -563,96 +621,246 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>157</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>154</v>
+      </c>
+      <c r="E5" s="2">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>156</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>162</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2">
+        <v>163</v>
+      </c>
+      <c r="E9" s="2">
+        <v>200</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>171</v>
+      </c>
+      <c r="E10" s="2">
+        <v>300</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>160</v>
+      </c>
+      <c r="E11" s="2">
+        <v>200</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>169</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>185</v>
+      </c>
+      <c r="E13" s="2">
+        <v>150</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/钻石商城.xlsx
+++ b/ExcelConfig/钻石商城.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,13 @@
   </si>
   <si>
     <t>回城卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max_purchase_times</t>
+  </si>
+  <si>
+    <t>最大可购买数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +603,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -635,6 +642,9 @@
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -661,6 +671,9 @@
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -687,6 +700,9 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -704,6 +720,9 @@
       <c r="F4" s="2">
         <v>-1</v>
       </c>
+      <c r="I4" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -721,6 +740,9 @@
       <c r="F5" s="2">
         <v>-1</v>
       </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -738,6 +760,9 @@
       <c r="F6" s="2">
         <v>-1</v>
       </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -755,6 +780,9 @@
       <c r="F7" s="2">
         <v>-1</v>
       </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
@@ -772,6 +800,9 @@
       <c r="F8" s="2">
         <v>-1</v>
       </c>
+      <c r="I8" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -789,6 +820,9 @@
       <c r="F9" s="2">
         <v>-1</v>
       </c>
+      <c r="I9" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -806,6 +840,9 @@
       <c r="F10" s="2">
         <v>-1</v>
       </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -823,6 +860,9 @@
       <c r="F11" s="2">
         <v>-1</v>
       </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -842,7 +882,9 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -860,6 +902,9 @@
       </c>
       <c r="F13" s="2">
         <v>-1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +915,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ExcelConfig/钻石商城.xlsx
+++ b/ExcelConfig/钻石商城.xlsx
@@ -10,7 +10,7 @@
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="DimondStoreConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【妖】:九尾狐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>富徭令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +165,10 @@
   </si>
   <si>
     <t>最大可购买数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖：九尾狐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +603,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>157</v>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>154</v>
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>156</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>161</v>
@@ -829,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>171</v>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>160</v>
@@ -869,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>169</v>
@@ -892,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
         <v>185</v>
